--- a/biology/Zoologie/Hemidactylus_macropholis/Hemidactylus_macropholis.xlsx
+++ b/biology/Zoologie/Hemidactylus_macropholis/Hemidactylus_macropholis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemidactylus macropholis est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemidactylus macropholis est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Somalie, en Érythrée, en Éthiopie et dans le nord du Kenya[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Somalie, en Érythrée, en Éthiopie et dans le nord du Kenya.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Boulenger, 1896 : A list of the reptiles and batrachians collected by the late Prince Eugenio Ruspoli in Somaliland and Gallaland in 1893. Annali del Museo civico di storia naturale di Genova, ser. 2, vol. 17, p. 5-14 (texte intégral).</t>
         </is>
